--- a/biology/Zoologie/Echinoneus/Echinoneus.xlsx
+++ b/biology/Zoologie/Echinoneus/Echinoneus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinoneus est un genre d'oursins irréguliers de la famille des Echinoneidae. Il ne contient qu'un seul genre vivant à l'heure actuelle : Echinoneus cyclostomus.
 </t>
@@ -511,15 +523,17 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Echinoneidae sont des oursins irréguliers : leur test (coquille) subsphérique est de forme légèrement ovale, la bouche (« péristome ») est située au centre de la face orale (inférieure) et l'anus (« périprocte »), très élargi, à mi-chemin entre celle-ci et la marge de la face orale (formant un axe antéro-postérieur et donc une symétrie biradiale), alors que les 4 orifices génitaux et le madréporite sont situés à l'apex, au sommet de la face aborale.
 Le test est de taille modeste, ovoïde, avec une marge arrondie et une face orale convexe.
 Le système apical est en position centrale, tétrabasal avec 4 pores génitaux.
 Les ambulacres sont étroits, sans pétales, avec des pores doubles sur toute la longueur, unisériés. Les plaques ambulacraires sont trigéminées, avec une demi-plaque tous les 3 éléments ; les deux autres sont subégaux et atteignent le perradius.
 Le périprocte est inframarginal, très large, allongé longitudinalement (et pas oblique contrairement aux Micropetalon), proche du péristome.
-Le péristome est large, central ou légèrement antérieur, oblique et enfoncé. Il n'y a pas de bourrelets ni de phyllodes, de pores buccaux ou de zones sternales nues[2].
-Ce genre semble être apparue à l'Oligocène[2].
+Le péristome est large, central ou légèrement antérieur, oblique et enfoncé. Il n'y a pas de bourrelets ni de phyllodes, de pores buccaux ou de zones sternales nues.
+Ce genre semble être apparue à l'Oligocène.
 </t>
         </is>
       </c>
@@ -548,9 +562,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (11 novembre 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (11 novembre 2014) :
 Echinoneus burgeri Grant &amp; Hertlein, 1938b †
 Echinoneus cyclostomus Leske, 1778 -- pantropical
 Echinoneus robustus Sánchez Roig, 1953c †
